--- a/課題管理表/APF_課題管理表_v1.0.xlsx
+++ b/課題管理表/APF_課題管理表_v1.0.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="960" windowWidth="15015" windowHeight="5235"/>
+    <workbookView xWindow="345" yWindow="1005" windowWidth="15015" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="三代第一階段課題" sheetId="4" r:id="rId1"/>
     <sheet name="工作表1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">三代第一階段課題!$A$5:$P$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">三代第一階段課題!$A$4:$Q$47</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="181">
   <si>
     <t>課題數統計</t>
     <phoneticPr fontId="3"/>
@@ -84,10 +84,6 @@
     <rPh sb="0" eb="1">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>狀態</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -434,10 +430,6 @@
   </si>
   <si>
     <t>事務中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請孟穎解釋工作表1的內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -820,40 +812,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建議：
-新增資料則以新增資料為查詢條件帶出
-維護資料則以原查詢條件並帶回第1頁
-20130911
-由於速達有連續編輯的需求,PIC需與內部進行確認後再提供方案.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20130911
 1.採後踢前並顯示提示訊息
 2.提示被踢的session IP位置,但所提供IP位置是僅供參考不一定準確</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-請速達提出，且目前認定應為需求變更</t>
+    <t>分類</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>業務</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>請孟穎解釋工作表1的內容(各單位預設查詢範圍說明)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增功能-要讓每個user設定常用功能，如同[我的最愛]般，且要於此階段完成
-1.需新增1功能提供所有使用者自行設定
-2.功能清單無法直接對應，需另調整版面於其餘區塊呈現，會有功能列表收合問題</t>
+    <t>infra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>速達俊伸</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PIC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu tree功能單清單編碼模式，因現行menu tree允許速達自行變更，顯示的功能清單代碼可能無法照順序，因此建議模式：以編排後功能清單調整，再以mapping表對回程式清單</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0914與Infra確認速達3代所有系統均列於相同網段中(可能切子網段)
+但是否需另提供權限資料文字檔需待1.與金財通討論 2.內部基本設計完成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>建議：
+新增資料則以新增資料為查詢條件帶出
+維護資料則以原查詢條件並帶回第1頁
+20130911
+由於速達有連續編輯的需求,PIC需與內部進行確認後再提供方案.
+20130913
+將此類case列為基本規範，如各模組有其餘需求則自行提出處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增功能 - 模組如正進行reboot or 系統更新時，點選功能要導至另一"暫停使用"畫面
+    <t>與速達初步討論應為清晨時段(較少人員使用)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+請速達提出，且目前認定應為需求變更
+20130917PIC內部討論，考量時程應於現有需求完成後再行對應，但將於2014/05上線前完成
+20130918初步討論需求內容，將於月會提出現況後暫時結案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>三代</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>功能新增 - 模組如正進行reboot or 系統更新時，點選功能要導至另一"暫停使用"畫面
 1.需新增1功能提供所有各系統維護窗口自行設定
 2.作業處理流程需討論</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">功能新增 - 要讓每個user設定常用功能，如同[我的最愛]般，且要於此階段完成
+1.需新增1功能提供所有使用者自行設定
+2.功能清單無法直接對應，需另調整版面於其餘區塊呈現，會有功能列表收合問題  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能變更 - 原拆分為3項功能的權限設定相關功能，速達希望能調整執行手順，在查詢單一角色後能一次執行完3項功能，但考量到未來授權問題，仍需有保留各別拆分對應的功能
+1.需求的人員業務執行手順
+2.權限上如何判斷?</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>1.角色維護功能應有[匯出Excel]功能，提供查詢後資料完整匯出，各項UI功能是否含此項目需再討論
 2.Excel匯出檔案名稱需為xls or xlsx?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20130918
+1.因客戶端電腦限制，匯出Excel檔案確認為xls
+2.各項功能逐步確認中，目前已知新增匯出功能：2
+20130925
+匯出excel版本為Excel 2003，副檔名xls限制65535筆</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+請速達提出，且目前認定應為需求變更
+20130925
+請速達先內部確認流程再開會討論
+請速達跟仕國確認時程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130918
+1.原速達提出於3項功能中各自串連，但無法提出完整的執行手順要求，PIC建議如確認要有此項功能，應以角色設定功能為處理點，角色維護時串列其餘3項功能
+2.權限暫訂為授權使用角色設定功能者，即可使用3項關連功能，至於各單獨功能授權仍依各別設定進行(待confirm)
+20130925
+在圖一增設快捷列，且在原來頁籤開啟其他設定功能。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1269,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1540,6 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
@@ -1548,7 +1641,51 @@
     <cellStyle name="一般_ECPS_整合測試_測試規格書_全_V1.0" xfId="1"/>
     <cellStyle name="一般_online_二重化測試_測試規格書_V2.1" xfId="2"/>
   </cellStyles>
-  <dxfs count="246">
+  <dxfs count="250">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4689,12 +4826,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XAG109"/>
+  <dimension ref="A1:XAT109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="D50" sqref="D49:D50"/>
+      <selection pane="topRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5603,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>1</v>
@@ -5615,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
@@ -5624,15 +5761,15 @@
     <row r="2" spans="1:16257" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A2" s="42">
         <f>COUNTA(L6:L303)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" s="43">
         <f>COUNTIF($L:$L,B1)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="43">
         <f>COUNTIF($L:$L,C1)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="43">
         <f>COUNTIF($L:$L,D1)</f>
@@ -5640,7 +5777,7 @@
       </c>
       <c r="E2" s="43">
         <f>SUM(B2:D2)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K2" s="43">
         <f>COUNTIF($M:$M,K1)</f>
@@ -5668,22 +5805,22 @@
         <v>8</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="J4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="K4" s="83" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="84" t="s">
         <v>10</v>
@@ -5695,6 +5832,9 @@
       <c r="O4" s="86"/>
       <c r="P4" s="75" t="s">
         <v>12</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:16257" s="48" customFormat="1">
@@ -5710,37 +5850,38 @@
       <c r="J5" s="83"/>
       <c r="K5" s="83"/>
       <c r="L5" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="N5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="O5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="51" t="s">
-        <v>16</v>
-      </c>
       <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
     </row>
     <row r="6" spans="1:16257" ht="94.5" hidden="1" customHeight="1">
       <c r="A6" s="35">
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="52">
         <v>20130617</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -5748,35 +5889,38 @@
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
       <c r="L6" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="67">
         <v>20130617</v>
       </c>
       <c r="P6" s="37"/>
+      <c r="Q6" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:16257" ht="54" hidden="1">
       <c r="A7" s="35">
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="52">
         <v>20130617</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -5784,75 +5928,81 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="67">
         <v>20130704</v>
       </c>
       <c r="P7" s="37"/>
+      <c r="Q7" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8" spans="1:16257" ht="202.5" hidden="1">
       <c r="A8" s="35">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="52">
         <v>20130617</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N8" s="37"/>
       <c r="O8" s="67"/>
       <c r="P8" s="37">
         <v>20130911</v>
       </c>
+      <c r="Q8" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:16257" ht="40.5" hidden="1">
       <c r="A9" s="35">
         <v>4</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="52">
         <v>20130617</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -5860,35 +6010,38 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="37"/>
       <c r="O9" s="67">
         <v>20130704</v>
       </c>
       <c r="P9" s="37"/>
+      <c r="Q9" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="1:16257" ht="81" hidden="1">
       <c r="A10" s="35">
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="52">
         <v>20130617</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="53">
@@ -5898,35 +6051,38 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="4">
         <v>20130731</v>
       </c>
       <c r="P10" s="37"/>
+      <c r="Q10" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" spans="1:16257" ht="81" hidden="1">
       <c r="A11" s="35">
         <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="52">
         <v>20130617</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -5934,35 +6090,38 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="67">
         <v>20130704</v>
       </c>
       <c r="P11" s="54"/>
+      <c r="Q11" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:16257" ht="40.5" hidden="1">
       <c r="A12" s="35">
         <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="52">
         <v>20130617</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -5970,35 +6129,38 @@
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="4">
         <v>20130704</v>
       </c>
       <c r="P12" s="37"/>
+      <c r="Q12" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" spans="1:16257" ht="189" hidden="1">
       <c r="A13" s="35">
         <v>8</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="52">
         <v>20130617</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -6006,35 +6168,38 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="4">
         <v>20130807</v>
       </c>
       <c r="P13" s="37"/>
+      <c r="Q13" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:16257" ht="40.5" hidden="1">
       <c r="A14" s="35">
         <v>9</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="52">
         <v>20130617</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -6042,35 +6207,38 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="4">
         <v>20130704</v>
       </c>
       <c r="P14" s="54"/>
+      <c r="Q14" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:16257" ht="54" hidden="1">
       <c r="A15" s="35">
         <v>10</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="55">
         <v>20130730</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="57"/>
@@ -6078,17 +6246,19 @@
       <c r="J15" s="36"/>
       <c r="K15" s="58"/>
       <c r="L15" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N15" s="59"/>
       <c r="O15" s="68">
         <v>20130731</v>
       </c>
       <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
+      <c r="Q15" s="61" t="s">
+        <v>157</v>
+      </c>
       <c r="R15" s="61"/>
       <c r="S15" s="61"/>
       <c r="T15" s="61"/>
@@ -22335,19 +22505,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="55">
         <v>20130730</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -22355,35 +22525,38 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N16" s="62"/>
       <c r="O16" s="68">
         <v>20130731</v>
       </c>
       <c r="P16" s="37"/>
+      <c r="Q16" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" ht="54" hidden="1">
+    <row r="17" spans="1:17" ht="54" hidden="1">
       <c r="A17" s="35">
         <v>12</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="55">
         <v>20130730</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -22391,35 +22564,38 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N17" s="62"/>
       <c r="O17" s="68">
         <v>20130730</v>
       </c>
       <c r="P17" s="37"/>
+      <c r="Q17" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" ht="27" hidden="1">
+    <row r="18" spans="1:17" ht="27" hidden="1">
       <c r="A18" s="35">
         <v>13</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="55">
         <v>20130730</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -22427,35 +22603,38 @@
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N18" s="62"/>
       <c r="O18" s="68">
         <v>20130731</v>
       </c>
       <c r="P18" s="37"/>
+      <c r="Q18" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" ht="121.5" hidden="1">
+    <row r="19" spans="1:17" ht="121.5" hidden="1">
       <c r="A19" s="35">
         <v>14</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="55">
         <v>20130730</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
@@ -22463,35 +22642,38 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N19" s="62"/>
       <c r="O19" s="68">
         <v>20130731</v>
       </c>
       <c r="P19" s="37"/>
+      <c r="Q19" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" ht="54" hidden="1">
+    <row r="20" spans="1:17" ht="54" hidden="1">
       <c r="A20" s="35">
         <v>15</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="55">
         <v>20130730</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -22499,35 +22681,38 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N20" s="62"/>
       <c r="O20" s="68">
         <v>20130731</v>
       </c>
       <c r="P20" s="37"/>
+      <c r="Q20" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" ht="40.5" hidden="1">
+    <row r="21" spans="1:17" ht="40.5" hidden="1">
       <c r="A21" s="35">
         <v>16</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="55">
         <v>20130730</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -22535,34 +22720,37 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O21" s="68">
         <v>20130731</v>
       </c>
       <c r="P21" s="37"/>
+      <c r="Q21" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" ht="27" hidden="1">
+    <row r="22" spans="1:17" ht="27" hidden="1">
       <c r="A22" s="35">
         <v>17</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="55">
         <v>20130730</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -22570,34 +22758,37 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O22" s="68">
         <v>20130731</v>
       </c>
       <c r="P22" s="37"/>
+      <c r="Q22" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" ht="40.5" hidden="1">
+    <row r="23" spans="1:17" ht="40.5" hidden="1">
       <c r="A23" s="35">
         <v>18</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="55">
         <v>20130730</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -22605,35 +22796,38 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N23" s="63"/>
       <c r="O23" s="68">
         <v>20130731</v>
       </c>
       <c r="P23" s="37"/>
+      <c r="Q23" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" ht="54" hidden="1">
+    <row r="24" spans="1:17" ht="54" hidden="1">
       <c r="A24" s="35">
         <v>19</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="E24" s="55">
         <v>20130730</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -22641,35 +22835,38 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="68">
         <v>20130806</v>
       </c>
       <c r="P24" s="37"/>
+      <c r="Q24" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" ht="40.5" hidden="1">
+    <row r="25" spans="1:17" ht="40.5" hidden="1">
       <c r="A25" s="35">
         <v>20</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" s="55">
         <v>20130801</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -22677,35 +22874,38 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N25" s="64"/>
       <c r="O25" s="68">
         <v>20130808</v>
       </c>
       <c r="P25" s="37"/>
+      <c r="Q25" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" ht="81" hidden="1">
+    <row r="26" spans="1:17" ht="81" hidden="1">
       <c r="A26" s="35">
         <v>21</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="55">
         <v>20130801</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -22713,35 +22913,38 @@
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N26" s="65"/>
       <c r="O26" s="68">
         <v>20130815</v>
       </c>
       <c r="P26" s="37"/>
+      <c r="Q26" s="45" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" ht="40.5" hidden="1">
+    <row r="27" spans="1:17" ht="40.5" hidden="1">
       <c r="A27" s="35">
         <v>22</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="55">
         <v>20130801</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -22749,35 +22952,38 @@
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="68">
         <v>20130808</v>
       </c>
       <c r="P27" s="37"/>
+      <c r="Q27" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" hidden="1">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="35">
         <v>23</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="55">
         <v>20130808</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -22785,35 +22991,38 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="68">
         <v>20130808</v>
       </c>
       <c r="P28" s="37"/>
+      <c r="Q28" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" hidden="1">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="35">
         <v>24</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="55">
         <v>20130809</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -22821,35 +23030,38 @@
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N29" s="37"/>
       <c r="O29" s="68">
         <v>20130815</v>
       </c>
       <c r="P29" s="37"/>
+      <c r="Q29" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" ht="54" hidden="1">
+    <row r="30" spans="1:17" ht="54" hidden="1">
       <c r="A30" s="35">
         <v>26</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="55">
         <v>20130809</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -22857,107 +23069,118 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N30" s="37"/>
       <c r="O30" s="68">
         <v>20130814</v>
       </c>
       <c r="P30" s="37"/>
+      <c r="Q30" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" ht="27" hidden="1">
+    <row r="31" spans="1:17" ht="27" hidden="1">
       <c r="A31" s="35">
         <v>27</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E31" s="55">
         <v>20130617</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N31" s="37"/>
       <c r="O31" s="68">
         <v>20130828</v>
       </c>
-      <c r="P31" s="37"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="45" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" ht="27">
+    <row r="32" spans="1:17" ht="27">
       <c r="A32" s="35">
         <v>27</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="55">
         <v>20130617</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="69"/>
+        <v>93</v>
+      </c>
+      <c r="M32" s="69" t="s">
+        <v>167</v>
+      </c>
       <c r="N32" s="37"/>
       <c r="O32" s="68"/>
       <c r="P32" s="37"/>
+      <c r="Q32" s="37" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" ht="27" hidden="1">
+    <row r="33" spans="1:17 16258:16270" ht="27" hidden="1">
       <c r="A33" s="35">
         <v>28</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E33" s="55">
         <v>20130820</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -22965,35 +23188,38 @@
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N33" s="37"/>
       <c r="O33" s="68">
         <v>20130828</v>
       </c>
-      <c r="P33" s="37"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" ht="27" hidden="1">
+    <row r="34" spans="1:17 16258:16270" ht="27" hidden="1">
       <c r="A34" s="35">
         <v>29</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" s="55">
         <v>20130828</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -23001,35 +23227,38 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N34" s="68"/>
       <c r="O34" s="53">
         <v>20130904</v>
       </c>
       <c r="P34" s="37"/>
+      <c r="Q34" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:17 16258:16270" hidden="1">
       <c r="A35" s="35">
         <v>30</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" s="55">
         <v>20130828</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
@@ -23037,35 +23266,38 @@
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N35" s="68"/>
       <c r="O35" s="53">
         <v>20130904</v>
       </c>
       <c r="P35" s="37"/>
+      <c r="Q35" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" ht="67.5">
+    <row r="36" spans="1:17 16258:16270" ht="94.5" hidden="1">
       <c r="A36" s="35">
         <v>31</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="53">
         <v>20130904</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
@@ -23073,33 +23305,38 @@
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="56" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M36" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="53">
+        <v>20130913</v>
+      </c>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="37"/>
     </row>
-    <row r="37" spans="1:16" ht="40.5" hidden="1">
+    <row r="37" spans="1:17 16258:16270" ht="40.5" hidden="1">
       <c r="A37" s="35">
         <v>32</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" s="53">
         <v>20130909</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
@@ -23107,35 +23344,38 @@
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M37" s="72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N37" s="74"/>
       <c r="O37" s="62"/>
       <c r="P37" s="37">
         <v>20130911</v>
       </c>
+      <c r="Q37" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" ht="67.5" hidden="1">
+    <row r="38" spans="1:17 16258:16270" ht="67.5" hidden="1">
       <c r="A38" s="35">
         <v>33</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E38" s="53">
         <v>20130909</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -23143,35 +23383,38 @@
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N38" s="63"/>
       <c r="O38" s="37"/>
-      <c r="P38" s="37">
+      <c r="P38" s="93">
         <v>20130911</v>
       </c>
+      <c r="Q38" s="45" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17 16258:16270">
       <c r="A39" s="35">
         <v>34</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="72" t="s">
         <v>145</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>147</v>
       </c>
       <c r="E39" s="53">
         <v>20130909</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -23179,30 +23422,36 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="N39" s="74"/>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
+      <c r="Q39" s="37" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" ht="27" hidden="1">
+    <row r="40" spans="1:17 16258:16270" ht="27" hidden="1">
       <c r="A40" s="35">
         <v>35</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E40" s="53">
         <v>20130909</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
@@ -23210,35 +23459,38 @@
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M40" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N40" s="73"/>
       <c r="O40" s="37"/>
-      <c r="P40" s="37">
+      <c r="P40" s="54">
         <v>20130911</v>
       </c>
+      <c r="Q40" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" ht="40.5" hidden="1">
+    <row r="41" spans="1:17 16258:16270" ht="40.5" hidden="1">
       <c r="A41" s="35">
         <v>36</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E41" s="53">
         <v>20130909</v>
       </c>
       <c r="F41" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -23246,35 +23498,38 @@
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M41" s="72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N41" s="73"/>
       <c r="O41" s="37"/>
       <c r="P41" s="37">
         <v>20130911</v>
       </c>
+      <c r="Q41" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" ht="27" hidden="1">
+    <row r="42" spans="1:17 16258:16270" ht="27" hidden="1">
       <c r="A42" s="35">
         <v>37</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E42" s="53">
         <v>20130909</v>
       </c>
       <c r="F42" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -23282,126 +23537,216 @@
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
       <c r="L42" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M42" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N42" s="73"/>
       <c r="O42" s="37"/>
-      <c r="P42" s="37">
+      <c r="P42" s="93">
         <v>20130911</v>
       </c>
+      <c r="Q42" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" ht="40.5">
+    <row r="43" spans="1:17 16258:16270" ht="67.5">
       <c r="A43" s="35">
         <v>38</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E43" s="53">
-        <v>20130912</v>
-      </c>
-      <c r="F43" s="56"/>
+        <v>20130913</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>164</v>
+      </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
+      <c r="L43" s="56" t="s">
+        <v>93</v>
+      </c>
       <c r="M43" s="72" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="N43" s="73"/>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
+      <c r="Q43" s="37" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" ht="40.5">
+    <row r="44" spans="1:17 16258:16270" ht="94.5">
       <c r="A44" s="35">
         <v>39</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="72" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E44" s="53">
-        <v>20130912</v>
-      </c>
-      <c r="F44" s="56"/>
+        <v>20130913</v>
+      </c>
+      <c r="F44" s="56" t="s">
+        <v>164</v>
+      </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="72"/>
+      <c r="L44" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="72" t="s">
+        <v>178</v>
+      </c>
       <c r="N44" s="73"/>
       <c r="O44" s="37"/>
       <c r="P44" s="37"/>
+      <c r="Q44" s="37" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" ht="55.5" customHeight="1">
+    <row r="45" spans="1:17 16258:16270" ht="55.5" customHeight="1">
       <c r="A45" s="35">
         <v>40</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E45" s="53">
-        <v>20130912</v>
-      </c>
-      <c r="F45" s="56"/>
+        <v>20130913</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>164</v>
+      </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
+      <c r="L45" s="56" t="s">
+        <v>93</v>
+      </c>
       <c r="M45" s="72" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="N45" s="73"/>
       <c r="O45" s="37"/>
       <c r="P45" s="37"/>
+      <c r="Q45" s="37" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="56"/>
+    <row r="46" spans="1:17 16258:16270" ht="40.5">
+      <c r="A46" s="35">
+        <v>41</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="53">
+        <v>20130911</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>165</v>
+      </c>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
+      <c r="L46" s="56" t="s">
+        <v>93</v>
+      </c>
       <c r="M46" s="72"/>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
+      <c r="Q46" s="37" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="47" spans="1:16">
-      <c r="F47" s="66"/>
+    <row r="47" spans="1:17 16258:16270" ht="108">
+      <c r="A47" s="35">
+        <v>42</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="53">
+        <v>20130918</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M47" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="XAH47" s="35"/>
+      <c r="XAI47" s="36"/>
+      <c r="XAJ47" s="36"/>
+      <c r="XAK47" s="72"/>
+      <c r="XAL47" s="53"/>
+      <c r="XAM47" s="56"/>
+      <c r="XAN47" s="37"/>
+      <c r="XAO47" s="37"/>
+      <c r="XAP47" s="37"/>
+      <c r="XAQ47" s="37"/>
+      <c r="XAR47" s="37"/>
+      <c r="XAS47" s="56"/>
+      <c r="XAT47" s="72"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17 16258:16270">
       <c r="F48" s="66"/>
     </row>
     <row r="49" spans="6:6">
@@ -23419,7 +23764,7 @@
     <row r="53" spans="6:6">
       <c r="F53" s="66"/>
     </row>
-    <row r="54" spans="6:6" ht="409.6">
+    <row r="54" spans="6:6">
       <c r="F54" s="66"/>
     </row>
     <row r="55" spans="6:6">
@@ -23591,14 +23936,17 @@
   <protectedRanges>
     <protectedRange password="C7F8" sqref="K1:K2 A1:F2" name="範圍1_1_1"/>
   </protectedRanges>
-  <autoFilter ref="A5:P45">
-    <filterColumn colId="11">
-      <filters>
+  <autoFilter ref="A4:Q47">
+    <filterColumn colId="11" showButton="0">
+      <filters blank="1">
+        <filter val="狀態"/>
         <filter val="待確認"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -23614,56 +23962,88 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C15:C19">
-    <cfRule type="expression" dxfId="241" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="767" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="768" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19 B15:B19">
-    <cfRule type="expression" dxfId="239" priority="8568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="8582" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="8569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="8583" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:N15 E17 E19">
-    <cfRule type="expression" dxfId="237" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="325" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="326" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="235" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="313" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="314" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="233" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="309" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="310" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="307" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="308" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="237" priority="305" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="306" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C14">
+    <cfRule type="expression" dxfId="235" priority="301" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="302" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B14">
+    <cfRule type="expression" dxfId="233" priority="303" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="304" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="231" priority="297" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="298" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
     <cfRule type="expression" dxfId="229" priority="291" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -23671,31 +24051,31 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
-    <cfRule type="expression" dxfId="227" priority="287" stopIfTrue="1">
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="290" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B14">
-    <cfRule type="expression" dxfId="225" priority="289" stopIfTrue="1">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="225" priority="287" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="288" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="223" priority="283" stopIfTrue="1">
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="286" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="221" priority="277" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -23703,7 +24083,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="219" priority="275" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -23711,7 +24091,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="217" priority="273" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -23719,143 +24099,143 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="215" priority="271" stopIfTrue="1">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="215" priority="269" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="272" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="213" priority="263" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="264" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="211" priority="261" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="262" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="209" priority="259" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="260" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="207" priority="255" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="270" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="205" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="267" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="268" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="203" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="265" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="266" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="201" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="261" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="262" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="199" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="257" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="258" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="197" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="255" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="256" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="195" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="253" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="254" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="193" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="251" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="252" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="191" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="249" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="250" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="189" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="247" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="248" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="187" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="243" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="244" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="185" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="241" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="242" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27 B28:B30">
-    <cfRule type="expression" dxfId="183" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="239" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="240" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="189" priority="235" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="236" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C30">
+    <cfRule type="expression" dxfId="187" priority="227" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="228" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="185" priority="225" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="226" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F30">
+    <cfRule type="expression" dxfId="183" priority="223" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="224" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="181" priority="221" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -23863,623 +24243,623 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="expression" dxfId="179" priority="213" stopIfTrue="1">
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="179" priority="215" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="214" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="177" priority="211" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="212" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F30">
-    <cfRule type="expression" dxfId="175" priority="209" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="210" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="173" priority="207" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="208" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="171" priority="201" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="216" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="169" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="213" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="214" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="167" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="211" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="212" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="165" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="209" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="210" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="207" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="208" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="161" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="205" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="206" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="203" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="204" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="157" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="201" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="202" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="199" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="200" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="153" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="195" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="196" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="151" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="193" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="194" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="149" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="191" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="192" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="147" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="189" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="190" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="145" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="187" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="188" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="143" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="185" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="186" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="141" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="183" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="184" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="139" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="181" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="182" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="137" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="179" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="180" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="135" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="177" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="178" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="133" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="175" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="176" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="131" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="173" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="174" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="129" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="171" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="172" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="127" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="169" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="170" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="125" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="167" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="168" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="123" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="165" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="166" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="121" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="163" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="164" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="119" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="161" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="162" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="117" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="159" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="160" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="expression" dxfId="115" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="157" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="158" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="113" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="155" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="156" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="111" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="153" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="154" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="109" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="151" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="152" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="107" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="149" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="150" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="105" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="145" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="146" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="103" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="137" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="138" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="101" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="133" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="134" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="131" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="132" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L33">
-    <cfRule type="expression" dxfId="97" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="129" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="130" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="95" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="117" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="118" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="93" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="115" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="116" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="91" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="113" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="114" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="89" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="111" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="112" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="87" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="109" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="110" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="85" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="105" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="106" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="83" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="103" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="104" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="101" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="102" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="99" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="100" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="77" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="97" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="98" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="95" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="96" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="73" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="93" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="94" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="91" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="92" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="89" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="90" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="88" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="85" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="86" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="83" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="84" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="61" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="81" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="82" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="59" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="79" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="80" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="77" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="78" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="55" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="75" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="76" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="73" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="74" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="71" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="72" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="65" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="66" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="63" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="64" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="61" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="62" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="59" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="60" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="57" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="58" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="55" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="56" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="54" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39 F43:F45">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="51" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
-      <formula>#REF!="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
-      <formula>#REF!="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="52" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="46" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F42">
+    <cfRule type="expression" dxfId="35" priority="39" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B46">
+    <cfRule type="expression" dxfId="29" priority="33" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C46">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+      <formula>#REF!="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+      <formula>#REF!="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
     <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24487,7 +24867,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F42">
+  <conditionalFormatting sqref="L40">
     <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24495,7 +24875,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+  <conditionalFormatting sqref="L42">
     <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24503,7 +24883,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="L41">
     <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24511,7 +24891,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B45">
+  <conditionalFormatting sqref="L38">
     <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24519,7 +24899,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C45">
+  <conditionalFormatting sqref="L37">
     <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24527,31 +24907,31 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="L36">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="L43:L45">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="L46">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+  <conditionalFormatting sqref="XAM47 F47">
     <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24559,7 +24939,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="XAI47 B47">
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24567,7 +24947,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="XAJ47 C47">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24575,7 +24955,7 @@
       <formula>#REF!="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
+  <conditionalFormatting sqref="XAS47 L47">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="取消"</formula>
     </cfRule>
@@ -24584,7 +24964,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVT982873:WVT983040 L65369:L65536 JH65369:JH65536 TD65369:TD65536 ACZ65369:ACZ65536 AMV65369:AMV65536 AWR65369:AWR65536 BGN65369:BGN65536 BQJ65369:BQJ65536 CAF65369:CAF65536 CKB65369:CKB65536 CTX65369:CTX65536 DDT65369:DDT65536 DNP65369:DNP65536 DXL65369:DXL65536 EHH65369:EHH65536 ERD65369:ERD65536 FAZ65369:FAZ65536 FKV65369:FKV65536 FUR65369:FUR65536 GEN65369:GEN65536 GOJ65369:GOJ65536 GYF65369:GYF65536 HIB65369:HIB65536 HRX65369:HRX65536 IBT65369:IBT65536 ILP65369:ILP65536 IVL65369:IVL65536 JFH65369:JFH65536 JPD65369:JPD65536 JYZ65369:JYZ65536 KIV65369:KIV65536 KSR65369:KSR65536 LCN65369:LCN65536 LMJ65369:LMJ65536 LWF65369:LWF65536 MGB65369:MGB65536 MPX65369:MPX65536 MZT65369:MZT65536 NJP65369:NJP65536 NTL65369:NTL65536 ODH65369:ODH65536 OND65369:OND65536 OWZ65369:OWZ65536 PGV65369:PGV65536 PQR65369:PQR65536 QAN65369:QAN65536 QKJ65369:QKJ65536 QUF65369:QUF65536 REB65369:REB65536 RNX65369:RNX65536 RXT65369:RXT65536 SHP65369:SHP65536 SRL65369:SRL65536 TBH65369:TBH65536 TLD65369:TLD65536 TUZ65369:TUZ65536 UEV65369:UEV65536 UOR65369:UOR65536 UYN65369:UYN65536 VIJ65369:VIJ65536 VSF65369:VSF65536 WCB65369:WCB65536 WLX65369:WLX65536 WVT65369:WVT65536 L130905:L131072 JH130905:JH131072 TD130905:TD131072 ACZ130905:ACZ131072 AMV130905:AMV131072 AWR130905:AWR131072 BGN130905:BGN131072 BQJ130905:BQJ131072 CAF130905:CAF131072 CKB130905:CKB131072 CTX130905:CTX131072 DDT130905:DDT131072 DNP130905:DNP131072 DXL130905:DXL131072 EHH130905:EHH131072 ERD130905:ERD131072 FAZ130905:FAZ131072 FKV130905:FKV131072 FUR130905:FUR131072 GEN130905:GEN131072 GOJ130905:GOJ131072 GYF130905:GYF131072 HIB130905:HIB131072 HRX130905:HRX131072 IBT130905:IBT131072 ILP130905:ILP131072 IVL130905:IVL131072 JFH130905:JFH131072 JPD130905:JPD131072 JYZ130905:JYZ131072 KIV130905:KIV131072 KSR130905:KSR131072 LCN130905:LCN131072 LMJ130905:LMJ131072 LWF130905:LWF131072 MGB130905:MGB131072 MPX130905:MPX131072 MZT130905:MZT131072 NJP130905:NJP131072 NTL130905:NTL131072 ODH130905:ODH131072 OND130905:OND131072 OWZ130905:OWZ131072 PGV130905:PGV131072 PQR130905:PQR131072 QAN130905:QAN131072 QKJ130905:QKJ131072 QUF130905:QUF131072 REB130905:REB131072 RNX130905:RNX131072 RXT130905:RXT131072 SHP130905:SHP131072 SRL130905:SRL131072 TBH130905:TBH131072 TLD130905:TLD131072 TUZ130905:TUZ131072 UEV130905:UEV131072 UOR130905:UOR131072 UYN130905:UYN131072 VIJ130905:VIJ131072 VSF130905:VSF131072 WCB130905:WCB131072 WLX130905:WLX131072 WVT130905:WVT131072 L196441:L196608 JH196441:JH196608 TD196441:TD196608 ACZ196441:ACZ196608 AMV196441:AMV196608 AWR196441:AWR196608 BGN196441:BGN196608 BQJ196441:BQJ196608 CAF196441:CAF196608 CKB196441:CKB196608 CTX196441:CTX196608 DDT196441:DDT196608 DNP196441:DNP196608 DXL196441:DXL196608 EHH196441:EHH196608 ERD196441:ERD196608 FAZ196441:FAZ196608 FKV196441:FKV196608 FUR196441:FUR196608 GEN196441:GEN196608 GOJ196441:GOJ196608 GYF196441:GYF196608 HIB196441:HIB196608 HRX196441:HRX196608 IBT196441:IBT196608 ILP196441:ILP196608 IVL196441:IVL196608 JFH196441:JFH196608 JPD196441:JPD196608 JYZ196441:JYZ196608 KIV196441:KIV196608 KSR196441:KSR196608 LCN196441:LCN196608 LMJ196441:LMJ196608 LWF196441:LWF196608 MGB196441:MGB196608 MPX196441:MPX196608 MZT196441:MZT196608 NJP196441:NJP196608 NTL196441:NTL196608 ODH196441:ODH196608 OND196441:OND196608 OWZ196441:OWZ196608 PGV196441:PGV196608 PQR196441:PQR196608 QAN196441:QAN196608 QKJ196441:QKJ196608 QUF196441:QUF196608 REB196441:REB196608 RNX196441:RNX196608 RXT196441:RXT196608 SHP196441:SHP196608 SRL196441:SRL196608 TBH196441:TBH196608 TLD196441:TLD196608 TUZ196441:TUZ196608 UEV196441:UEV196608 UOR196441:UOR196608 UYN196441:UYN196608 VIJ196441:VIJ196608 VSF196441:VSF196608 WCB196441:WCB196608 WLX196441:WLX196608 WVT196441:WVT196608 L261977:L262144 JH261977:JH262144 TD261977:TD262144 ACZ261977:ACZ262144 AMV261977:AMV262144 AWR261977:AWR262144 BGN261977:BGN262144 BQJ261977:BQJ262144 CAF261977:CAF262144 CKB261977:CKB262144 CTX261977:CTX262144 DDT261977:DDT262144 DNP261977:DNP262144 DXL261977:DXL262144 EHH261977:EHH262144 ERD261977:ERD262144 FAZ261977:FAZ262144 FKV261977:FKV262144 FUR261977:FUR262144 GEN261977:GEN262144 GOJ261977:GOJ262144 GYF261977:GYF262144 HIB261977:HIB262144 HRX261977:HRX262144 IBT261977:IBT262144 ILP261977:ILP262144 IVL261977:IVL262144 JFH261977:JFH262144 JPD261977:JPD262144 JYZ261977:JYZ262144 KIV261977:KIV262144 KSR261977:KSR262144 LCN261977:LCN262144 LMJ261977:LMJ262144 LWF261977:LWF262144 MGB261977:MGB262144 MPX261977:MPX262144 MZT261977:MZT262144 NJP261977:NJP262144 NTL261977:NTL262144 ODH261977:ODH262144 OND261977:OND262144 OWZ261977:OWZ262144 PGV261977:PGV262144 PQR261977:PQR262144 QAN261977:QAN262144 QKJ261977:QKJ262144 QUF261977:QUF262144 REB261977:REB262144 RNX261977:RNX262144 RXT261977:RXT262144 SHP261977:SHP262144 SRL261977:SRL262144 TBH261977:TBH262144 TLD261977:TLD262144 TUZ261977:TUZ262144 UEV261977:UEV262144 UOR261977:UOR262144 UYN261977:UYN262144 VIJ261977:VIJ262144 VSF261977:VSF262144 WCB261977:WCB262144 WLX261977:WLX262144 WVT261977:WVT262144 L327513:L327680 JH327513:JH327680 TD327513:TD327680 ACZ327513:ACZ327680 AMV327513:AMV327680 AWR327513:AWR327680 BGN327513:BGN327680 BQJ327513:BQJ327680 CAF327513:CAF327680 CKB327513:CKB327680 CTX327513:CTX327680 DDT327513:DDT327680 DNP327513:DNP327680 DXL327513:DXL327680 EHH327513:EHH327680 ERD327513:ERD327680 FAZ327513:FAZ327680 FKV327513:FKV327680 FUR327513:FUR327680 GEN327513:GEN327680 GOJ327513:GOJ327680 GYF327513:GYF327680 HIB327513:HIB327680 HRX327513:HRX327680 IBT327513:IBT327680 ILP327513:ILP327680 IVL327513:IVL327680 JFH327513:JFH327680 JPD327513:JPD327680 JYZ327513:JYZ327680 KIV327513:KIV327680 KSR327513:KSR327680 LCN327513:LCN327680 LMJ327513:LMJ327680 LWF327513:LWF327680 MGB327513:MGB327680 MPX327513:MPX327680 MZT327513:MZT327680 NJP327513:NJP327680 NTL327513:NTL327680 ODH327513:ODH327680 OND327513:OND327680 OWZ327513:OWZ327680 PGV327513:PGV327680 PQR327513:PQR327680 QAN327513:QAN327680 QKJ327513:QKJ327680 QUF327513:QUF327680 REB327513:REB327680 RNX327513:RNX327680 RXT327513:RXT327680 SHP327513:SHP327680 SRL327513:SRL327680 TBH327513:TBH327680 TLD327513:TLD327680 TUZ327513:TUZ327680 UEV327513:UEV327680 UOR327513:UOR327680 UYN327513:UYN327680 VIJ327513:VIJ327680 VSF327513:VSF327680 WCB327513:WCB327680 WLX327513:WLX327680 WVT327513:WVT327680 L393049:L393216 JH393049:JH393216 TD393049:TD393216 ACZ393049:ACZ393216 AMV393049:AMV393216 AWR393049:AWR393216 BGN393049:BGN393216 BQJ393049:BQJ393216 CAF393049:CAF393216 CKB393049:CKB393216 CTX393049:CTX393216 DDT393049:DDT393216 DNP393049:DNP393216 DXL393049:DXL393216 EHH393049:EHH393216 ERD393049:ERD393216 FAZ393049:FAZ393216 FKV393049:FKV393216 FUR393049:FUR393216 GEN393049:GEN393216 GOJ393049:GOJ393216 GYF393049:GYF393216 HIB393049:HIB393216 HRX393049:HRX393216 IBT393049:IBT393216 ILP393049:ILP393216 IVL393049:IVL393216 JFH393049:JFH393216 JPD393049:JPD393216 JYZ393049:JYZ393216 KIV393049:KIV393216 KSR393049:KSR393216 LCN393049:LCN393216 LMJ393049:LMJ393216 LWF393049:LWF393216 MGB393049:MGB393216 MPX393049:MPX393216 MZT393049:MZT393216 NJP393049:NJP393216 NTL393049:NTL393216 ODH393049:ODH393216 OND393049:OND393216 OWZ393049:OWZ393216 PGV393049:PGV393216 PQR393049:PQR393216 QAN393049:QAN393216 QKJ393049:QKJ393216 QUF393049:QUF393216 REB393049:REB393216 RNX393049:RNX393216 RXT393049:RXT393216 SHP393049:SHP393216 SRL393049:SRL393216 TBH393049:TBH393216 TLD393049:TLD393216 TUZ393049:TUZ393216 UEV393049:UEV393216 UOR393049:UOR393216 UYN393049:UYN393216 VIJ393049:VIJ393216 VSF393049:VSF393216 WCB393049:WCB393216 WLX393049:WLX393216 WVT393049:WVT393216 L458585:L458752 JH458585:JH458752 TD458585:TD458752 ACZ458585:ACZ458752 AMV458585:AMV458752 AWR458585:AWR458752 BGN458585:BGN458752 BQJ458585:BQJ458752 CAF458585:CAF458752 CKB458585:CKB458752 CTX458585:CTX458752 DDT458585:DDT458752 DNP458585:DNP458752 DXL458585:DXL458752 EHH458585:EHH458752 ERD458585:ERD458752 FAZ458585:FAZ458752 FKV458585:FKV458752 FUR458585:FUR458752 GEN458585:GEN458752 GOJ458585:GOJ458752 GYF458585:GYF458752 HIB458585:HIB458752 HRX458585:HRX458752 IBT458585:IBT458752 ILP458585:ILP458752 IVL458585:IVL458752 JFH458585:JFH458752 JPD458585:JPD458752 JYZ458585:JYZ458752 KIV458585:KIV458752 KSR458585:KSR458752 LCN458585:LCN458752 LMJ458585:LMJ458752 LWF458585:LWF458752 MGB458585:MGB458752 MPX458585:MPX458752 MZT458585:MZT458752 NJP458585:NJP458752 NTL458585:NTL458752 ODH458585:ODH458752 OND458585:OND458752 OWZ458585:OWZ458752 PGV458585:PGV458752 PQR458585:PQR458752 QAN458585:QAN458752 QKJ458585:QKJ458752 QUF458585:QUF458752 REB458585:REB458752 RNX458585:RNX458752 RXT458585:RXT458752 SHP458585:SHP458752 SRL458585:SRL458752 TBH458585:TBH458752 TLD458585:TLD458752 TUZ458585:TUZ458752 UEV458585:UEV458752 UOR458585:UOR458752 UYN458585:UYN458752 VIJ458585:VIJ458752 VSF458585:VSF458752 WCB458585:WCB458752 WLX458585:WLX458752 WVT458585:WVT458752 L524121:L524288 JH524121:JH524288 TD524121:TD524288 ACZ524121:ACZ524288 AMV524121:AMV524288 AWR524121:AWR524288 BGN524121:BGN524288 BQJ524121:BQJ524288 CAF524121:CAF524288 CKB524121:CKB524288 CTX524121:CTX524288 DDT524121:DDT524288 DNP524121:DNP524288 DXL524121:DXL524288 EHH524121:EHH524288 ERD524121:ERD524288 FAZ524121:FAZ524288 FKV524121:FKV524288 FUR524121:FUR524288 GEN524121:GEN524288 GOJ524121:GOJ524288 GYF524121:GYF524288 HIB524121:HIB524288 HRX524121:HRX524288 IBT524121:IBT524288 ILP524121:ILP524288 IVL524121:IVL524288 JFH524121:JFH524288 JPD524121:JPD524288 JYZ524121:JYZ524288 KIV524121:KIV524288 KSR524121:KSR524288 LCN524121:LCN524288 LMJ524121:LMJ524288 LWF524121:LWF524288 MGB524121:MGB524288 MPX524121:MPX524288 MZT524121:MZT524288 NJP524121:NJP524288 NTL524121:NTL524288 ODH524121:ODH524288 OND524121:OND524288 OWZ524121:OWZ524288 PGV524121:PGV524288 PQR524121:PQR524288 QAN524121:QAN524288 QKJ524121:QKJ524288 QUF524121:QUF524288 REB524121:REB524288 RNX524121:RNX524288 RXT524121:RXT524288 SHP524121:SHP524288 SRL524121:SRL524288 TBH524121:TBH524288 TLD524121:TLD524288 TUZ524121:TUZ524288 UEV524121:UEV524288 UOR524121:UOR524288 UYN524121:UYN524288 VIJ524121:VIJ524288 VSF524121:VSF524288 WCB524121:WCB524288 WLX524121:WLX524288 WVT524121:WVT524288 L589657:L589824 JH589657:JH589824 TD589657:TD589824 ACZ589657:ACZ589824 AMV589657:AMV589824 AWR589657:AWR589824 BGN589657:BGN589824 BQJ589657:BQJ589824 CAF589657:CAF589824 CKB589657:CKB589824 CTX589657:CTX589824 DDT589657:DDT589824 DNP589657:DNP589824 DXL589657:DXL589824 EHH589657:EHH589824 ERD589657:ERD589824 FAZ589657:FAZ589824 FKV589657:FKV589824 FUR589657:FUR589824 GEN589657:GEN589824 GOJ589657:GOJ589824 GYF589657:GYF589824 HIB589657:HIB589824 HRX589657:HRX589824 IBT589657:IBT589824 ILP589657:ILP589824 IVL589657:IVL589824 JFH589657:JFH589824 JPD589657:JPD589824 JYZ589657:JYZ589824 KIV589657:KIV589824 KSR589657:KSR589824 LCN589657:LCN589824 LMJ589657:LMJ589824 LWF589657:LWF589824 MGB589657:MGB589824 MPX589657:MPX589824 MZT589657:MZT589824 NJP589657:NJP589824 NTL589657:NTL589824 ODH589657:ODH589824 OND589657:OND589824 OWZ589657:OWZ589824 PGV589657:PGV589824 PQR589657:PQR589824 QAN589657:QAN589824 QKJ589657:QKJ589824 QUF589657:QUF589824 REB589657:REB589824 RNX589657:RNX589824 RXT589657:RXT589824 SHP589657:SHP589824 SRL589657:SRL589824 TBH589657:TBH589824 TLD589657:TLD589824 TUZ589657:TUZ589824 UEV589657:UEV589824 UOR589657:UOR589824 UYN589657:UYN589824 VIJ589657:VIJ589824 VSF589657:VSF589824 WCB589657:WCB589824 WLX589657:WLX589824 WVT589657:WVT589824 L655193:L655360 JH655193:JH655360 TD655193:TD655360 ACZ655193:ACZ655360 AMV655193:AMV655360 AWR655193:AWR655360 BGN655193:BGN655360 BQJ655193:BQJ655360 CAF655193:CAF655360 CKB655193:CKB655360 CTX655193:CTX655360 DDT655193:DDT655360 DNP655193:DNP655360 DXL655193:DXL655360 EHH655193:EHH655360 ERD655193:ERD655360 FAZ655193:FAZ655360 FKV655193:FKV655360 FUR655193:FUR655360 GEN655193:GEN655360 GOJ655193:GOJ655360 GYF655193:GYF655360 HIB655193:HIB655360 HRX655193:HRX655360 IBT655193:IBT655360 ILP655193:ILP655360 IVL655193:IVL655360 JFH655193:JFH655360 JPD655193:JPD655360 JYZ655193:JYZ655360 KIV655193:KIV655360 KSR655193:KSR655360 LCN655193:LCN655360 LMJ655193:LMJ655360 LWF655193:LWF655360 MGB655193:MGB655360 MPX655193:MPX655360 MZT655193:MZT655360 NJP655193:NJP655360 NTL655193:NTL655360 ODH655193:ODH655360 OND655193:OND655360 OWZ655193:OWZ655360 PGV655193:PGV655360 PQR655193:PQR655360 QAN655193:QAN655360 QKJ655193:QKJ655360 QUF655193:QUF655360 REB655193:REB655360 RNX655193:RNX655360 RXT655193:RXT655360 SHP655193:SHP655360 SRL655193:SRL655360 TBH655193:TBH655360 TLD655193:TLD655360 TUZ655193:TUZ655360 UEV655193:UEV655360 UOR655193:UOR655360 UYN655193:UYN655360 VIJ655193:VIJ655360 VSF655193:VSF655360 WCB655193:WCB655360 WLX655193:WLX655360 WVT655193:WVT655360 L720729:L720896 JH720729:JH720896 TD720729:TD720896 ACZ720729:ACZ720896 AMV720729:AMV720896 AWR720729:AWR720896 BGN720729:BGN720896 BQJ720729:BQJ720896 CAF720729:CAF720896 CKB720729:CKB720896 CTX720729:CTX720896 DDT720729:DDT720896 DNP720729:DNP720896 DXL720729:DXL720896 EHH720729:EHH720896 ERD720729:ERD720896 FAZ720729:FAZ720896 FKV720729:FKV720896 FUR720729:FUR720896 GEN720729:GEN720896 GOJ720729:GOJ720896 GYF720729:GYF720896 HIB720729:HIB720896 HRX720729:HRX720896 IBT720729:IBT720896 ILP720729:ILP720896 IVL720729:IVL720896 JFH720729:JFH720896 JPD720729:JPD720896 JYZ720729:JYZ720896 KIV720729:KIV720896 KSR720729:KSR720896 LCN720729:LCN720896 LMJ720729:LMJ720896 LWF720729:LWF720896 MGB720729:MGB720896 MPX720729:MPX720896 MZT720729:MZT720896 NJP720729:NJP720896 NTL720729:NTL720896 ODH720729:ODH720896 OND720729:OND720896 OWZ720729:OWZ720896 PGV720729:PGV720896 PQR720729:PQR720896 QAN720729:QAN720896 QKJ720729:QKJ720896 QUF720729:QUF720896 REB720729:REB720896 RNX720729:RNX720896 RXT720729:RXT720896 SHP720729:SHP720896 SRL720729:SRL720896 TBH720729:TBH720896 TLD720729:TLD720896 TUZ720729:TUZ720896 UEV720729:UEV720896 UOR720729:UOR720896 UYN720729:UYN720896 VIJ720729:VIJ720896 VSF720729:VSF720896 WCB720729:WCB720896 WLX720729:WLX720896 WVT720729:WVT720896 L786265:L786432 JH786265:JH786432 TD786265:TD786432 ACZ786265:ACZ786432 AMV786265:AMV786432 AWR786265:AWR786432 BGN786265:BGN786432 BQJ786265:BQJ786432 CAF786265:CAF786432 CKB786265:CKB786432 CTX786265:CTX786432 DDT786265:DDT786432 DNP786265:DNP786432 DXL786265:DXL786432 EHH786265:EHH786432 ERD786265:ERD786432 FAZ786265:FAZ786432 FKV786265:FKV786432 FUR786265:FUR786432 GEN786265:GEN786432 GOJ786265:GOJ786432 GYF786265:GYF786432 HIB786265:HIB786432 HRX786265:HRX786432 IBT786265:IBT786432 ILP786265:ILP786432 IVL786265:IVL786432 JFH786265:JFH786432 JPD786265:JPD786432 JYZ786265:JYZ786432 KIV786265:KIV786432 KSR786265:KSR786432 LCN786265:LCN786432 LMJ786265:LMJ786432 LWF786265:LWF786432 MGB786265:MGB786432 MPX786265:MPX786432 MZT786265:MZT786432 NJP786265:NJP786432 NTL786265:NTL786432 ODH786265:ODH786432 OND786265:OND786432 OWZ786265:OWZ786432 PGV786265:PGV786432 PQR786265:PQR786432 QAN786265:QAN786432 QKJ786265:QKJ786432 QUF786265:QUF786432 REB786265:REB786432 RNX786265:RNX786432 RXT786265:RXT786432 SHP786265:SHP786432 SRL786265:SRL786432 TBH786265:TBH786432 TLD786265:TLD786432 TUZ786265:TUZ786432 UEV786265:UEV786432 UOR786265:UOR786432 UYN786265:UYN786432 VIJ786265:VIJ786432 VSF786265:VSF786432 WCB786265:WCB786432 WLX786265:WLX786432 WVT786265:WVT786432 L851801:L851968 JH851801:JH851968 TD851801:TD851968 ACZ851801:ACZ851968 AMV851801:AMV851968 AWR851801:AWR851968 BGN851801:BGN851968 BQJ851801:BQJ851968 CAF851801:CAF851968 CKB851801:CKB851968 CTX851801:CTX851968 DDT851801:DDT851968 DNP851801:DNP851968 DXL851801:DXL851968 EHH851801:EHH851968 ERD851801:ERD851968 FAZ851801:FAZ851968 FKV851801:FKV851968 FUR851801:FUR851968 GEN851801:GEN851968 GOJ851801:GOJ851968 GYF851801:GYF851968 HIB851801:HIB851968 HRX851801:HRX851968 IBT851801:IBT851968 ILP851801:ILP851968 IVL851801:IVL851968 JFH851801:JFH851968 JPD851801:JPD851968 JYZ851801:JYZ851968 KIV851801:KIV851968 KSR851801:KSR851968 LCN851801:LCN851968 LMJ851801:LMJ851968 LWF851801:LWF851968 MGB851801:MGB851968 MPX851801:MPX851968 MZT851801:MZT851968 NJP851801:NJP851968 NTL851801:NTL851968 ODH851801:ODH851968 OND851801:OND851968 OWZ851801:OWZ851968 PGV851801:PGV851968 PQR851801:PQR851968 QAN851801:QAN851968 QKJ851801:QKJ851968 QUF851801:QUF851968 REB851801:REB851968 RNX851801:RNX851968 RXT851801:RXT851968 SHP851801:SHP851968 SRL851801:SRL851968 TBH851801:TBH851968 TLD851801:TLD851968 TUZ851801:TUZ851968 UEV851801:UEV851968 UOR851801:UOR851968 UYN851801:UYN851968 VIJ851801:VIJ851968 VSF851801:VSF851968 WCB851801:WCB851968 WLX851801:WLX851968 WVT851801:WVT851968 L917337:L917504 JH917337:JH917504 TD917337:TD917504 ACZ917337:ACZ917504 AMV917337:AMV917504 AWR917337:AWR917504 BGN917337:BGN917504 BQJ917337:BQJ917504 CAF917337:CAF917504 CKB917337:CKB917504 CTX917337:CTX917504 DDT917337:DDT917504 DNP917337:DNP917504 DXL917337:DXL917504 EHH917337:EHH917504 ERD917337:ERD917504 FAZ917337:FAZ917504 FKV917337:FKV917504 FUR917337:FUR917504 GEN917337:GEN917504 GOJ917337:GOJ917504 GYF917337:GYF917504 HIB917337:HIB917504 HRX917337:HRX917504 IBT917337:IBT917504 ILP917337:ILP917504 IVL917337:IVL917504 JFH917337:JFH917504 JPD917337:JPD917504 JYZ917337:JYZ917504 KIV917337:KIV917504 KSR917337:KSR917504 LCN917337:LCN917504 LMJ917337:LMJ917504 LWF917337:LWF917504 MGB917337:MGB917504 MPX917337:MPX917504 MZT917337:MZT917504 NJP917337:NJP917504 NTL917337:NTL917504 ODH917337:ODH917504 OND917337:OND917504 OWZ917337:OWZ917504 PGV917337:PGV917504 PQR917337:PQR917504 QAN917337:QAN917504 QKJ917337:QKJ917504 QUF917337:QUF917504 REB917337:REB917504 RNX917337:RNX917504 RXT917337:RXT917504 SHP917337:SHP917504 SRL917337:SRL917504 TBH917337:TBH917504 TLD917337:TLD917504 TUZ917337:TUZ917504 UEV917337:UEV917504 UOR917337:UOR917504 UYN917337:UYN917504 VIJ917337:VIJ917504 VSF917337:VSF917504 WCB917337:WCB917504 WLX917337:WLX917504 WVT917337:WVT917504 L982873:L983040 JH982873:JH983040 TD982873:TD983040 ACZ982873:ACZ983040 AMV982873:AMV983040 AWR982873:AWR983040 BGN982873:BGN983040 BQJ982873:BQJ983040 CAF982873:CAF983040 CKB982873:CKB983040 CTX982873:CTX983040 DDT982873:DDT983040 DNP982873:DNP983040 DXL982873:DXL983040 EHH982873:EHH983040 ERD982873:ERD983040 FAZ982873:FAZ983040 FKV982873:FKV983040 FUR982873:FUR983040 GEN982873:GEN983040 GOJ982873:GOJ983040 GYF982873:GYF983040 HIB982873:HIB983040 HRX982873:HRX983040 IBT982873:IBT983040 ILP982873:ILP983040 IVL982873:IVL983040 JFH982873:JFH983040 JPD982873:JPD983040 JYZ982873:JYZ983040 KIV982873:KIV983040 KSR982873:KSR983040 LCN982873:LCN983040 LMJ982873:LMJ983040 LWF982873:LWF983040 MGB982873:MGB983040 MPX982873:MPX983040 MZT982873:MZT983040 NJP982873:NJP983040 NTL982873:NTL983040 ODH982873:ODH983040 OND982873:OND983040 OWZ982873:OWZ983040 PGV982873:PGV983040 PQR982873:PQR983040 QAN982873:QAN983040 QKJ982873:QKJ983040 QUF982873:QUF983040 REB982873:REB983040 RNX982873:RNX983040 RXT982873:RXT983040 SHP982873:SHP983040 SRL982873:SRL983040 TBH982873:TBH983040 TLD982873:TLD983040 TUZ982873:TUZ983040 UEV982873:UEV983040 UOR982873:UOR983040 UYN982873:UYN983040 VIJ982873:VIJ983040 VSF982873:VSF983040 WCB982873:WCB983040 WLX982873:WLX983040 JF15 SZ15 ACT15 AMN15 AWH15 BGB15 BPV15 BZP15 CJJ15 CTD15 DCX15 DMR15 DWL15 EGF15 EPZ15 EZT15 FJN15 FTH15 GDB15 GMV15 GWP15 HGJ15 HQD15 HZX15 IJR15 ITL15 JDF15 JMZ15 JWT15 KGN15 KQH15 LAB15 LJV15 LTP15 MDJ15 MND15 MWX15 NGR15 NQL15 OAF15 OJZ15 OTT15 PDN15 PNH15 PXB15 QGV15 QQP15 RAJ15 RKD15 RTX15 SDR15 SNL15 SXF15 TGZ15 TQT15 UAN15 UKH15 UUB15 VDV15 VNP15 VXJ15 WHD15 WQX15 L6:L42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVT982873:WVT983040 L65369:L65536 JH65369:JH65536 TD65369:TD65536 ACZ65369:ACZ65536 AMV65369:AMV65536 AWR65369:AWR65536 BGN65369:BGN65536 BQJ65369:BQJ65536 CAF65369:CAF65536 CKB65369:CKB65536 CTX65369:CTX65536 DDT65369:DDT65536 DNP65369:DNP65536 DXL65369:DXL65536 EHH65369:EHH65536 ERD65369:ERD65536 FAZ65369:FAZ65536 FKV65369:FKV65536 FUR65369:FUR65536 GEN65369:GEN65536 GOJ65369:GOJ65536 GYF65369:GYF65536 HIB65369:HIB65536 HRX65369:HRX65536 IBT65369:IBT65536 ILP65369:ILP65536 IVL65369:IVL65536 JFH65369:JFH65536 JPD65369:JPD65536 JYZ65369:JYZ65536 KIV65369:KIV65536 KSR65369:KSR65536 LCN65369:LCN65536 LMJ65369:LMJ65536 LWF65369:LWF65536 MGB65369:MGB65536 MPX65369:MPX65536 MZT65369:MZT65536 NJP65369:NJP65536 NTL65369:NTL65536 ODH65369:ODH65536 OND65369:OND65536 OWZ65369:OWZ65536 PGV65369:PGV65536 PQR65369:PQR65536 QAN65369:QAN65536 QKJ65369:QKJ65536 QUF65369:QUF65536 REB65369:REB65536 RNX65369:RNX65536 RXT65369:RXT65536 SHP65369:SHP65536 SRL65369:SRL65536 TBH65369:TBH65536 TLD65369:TLD65536 TUZ65369:TUZ65536 UEV65369:UEV65536 UOR65369:UOR65536 UYN65369:UYN65536 VIJ65369:VIJ65536 VSF65369:VSF65536 WCB65369:WCB65536 WLX65369:WLX65536 WVT65369:WVT65536 L130905:L131072 JH130905:JH131072 TD130905:TD131072 ACZ130905:ACZ131072 AMV130905:AMV131072 AWR130905:AWR131072 BGN130905:BGN131072 BQJ130905:BQJ131072 CAF130905:CAF131072 CKB130905:CKB131072 CTX130905:CTX131072 DDT130905:DDT131072 DNP130905:DNP131072 DXL130905:DXL131072 EHH130905:EHH131072 ERD130905:ERD131072 FAZ130905:FAZ131072 FKV130905:FKV131072 FUR130905:FUR131072 GEN130905:GEN131072 GOJ130905:GOJ131072 GYF130905:GYF131072 HIB130905:HIB131072 HRX130905:HRX131072 IBT130905:IBT131072 ILP130905:ILP131072 IVL130905:IVL131072 JFH130905:JFH131072 JPD130905:JPD131072 JYZ130905:JYZ131072 KIV130905:KIV131072 KSR130905:KSR131072 LCN130905:LCN131072 LMJ130905:LMJ131072 LWF130905:LWF131072 MGB130905:MGB131072 MPX130905:MPX131072 MZT130905:MZT131072 NJP130905:NJP131072 NTL130905:NTL131072 ODH130905:ODH131072 OND130905:OND131072 OWZ130905:OWZ131072 PGV130905:PGV131072 PQR130905:PQR131072 QAN130905:QAN131072 QKJ130905:QKJ131072 QUF130905:QUF131072 REB130905:REB131072 RNX130905:RNX131072 RXT130905:RXT131072 SHP130905:SHP131072 SRL130905:SRL131072 TBH130905:TBH131072 TLD130905:TLD131072 TUZ130905:TUZ131072 UEV130905:UEV131072 UOR130905:UOR131072 UYN130905:UYN131072 VIJ130905:VIJ131072 VSF130905:VSF131072 WCB130905:WCB131072 WLX130905:WLX131072 WVT130905:WVT131072 L196441:L196608 JH196441:JH196608 TD196441:TD196608 ACZ196441:ACZ196608 AMV196441:AMV196608 AWR196441:AWR196608 BGN196441:BGN196608 BQJ196441:BQJ196608 CAF196441:CAF196608 CKB196441:CKB196608 CTX196441:CTX196608 DDT196441:DDT196608 DNP196441:DNP196608 DXL196441:DXL196608 EHH196441:EHH196608 ERD196441:ERD196608 FAZ196441:FAZ196608 FKV196441:FKV196608 FUR196441:FUR196608 GEN196441:GEN196608 GOJ196441:GOJ196608 GYF196441:GYF196608 HIB196441:HIB196608 HRX196441:HRX196608 IBT196441:IBT196608 ILP196441:ILP196608 IVL196441:IVL196608 JFH196441:JFH196608 JPD196441:JPD196608 JYZ196441:JYZ196608 KIV196441:KIV196608 KSR196441:KSR196608 LCN196441:LCN196608 LMJ196441:LMJ196608 LWF196441:LWF196608 MGB196441:MGB196608 MPX196441:MPX196608 MZT196441:MZT196608 NJP196441:NJP196608 NTL196441:NTL196608 ODH196441:ODH196608 OND196441:OND196608 OWZ196441:OWZ196608 PGV196441:PGV196608 PQR196441:PQR196608 QAN196441:QAN196608 QKJ196441:QKJ196608 QUF196441:QUF196608 REB196441:REB196608 RNX196441:RNX196608 RXT196441:RXT196608 SHP196441:SHP196608 SRL196441:SRL196608 TBH196441:TBH196608 TLD196441:TLD196608 TUZ196441:TUZ196608 UEV196441:UEV196608 UOR196441:UOR196608 UYN196441:UYN196608 VIJ196441:VIJ196608 VSF196441:VSF196608 WCB196441:WCB196608 WLX196441:WLX196608 WVT196441:WVT196608 L261977:L262144 JH261977:JH262144 TD261977:TD262144 ACZ261977:ACZ262144 AMV261977:AMV262144 AWR261977:AWR262144 BGN261977:BGN262144 BQJ261977:BQJ262144 CAF261977:CAF262144 CKB261977:CKB262144 CTX261977:CTX262144 DDT261977:DDT262144 DNP261977:DNP262144 DXL261977:DXL262144 EHH261977:EHH262144 ERD261977:ERD262144 FAZ261977:FAZ262144 FKV261977:FKV262144 FUR261977:FUR262144 GEN261977:GEN262144 GOJ261977:GOJ262144 GYF261977:GYF262144 HIB261977:HIB262144 HRX261977:HRX262144 IBT261977:IBT262144 ILP261977:ILP262144 IVL261977:IVL262144 JFH261977:JFH262144 JPD261977:JPD262144 JYZ261977:JYZ262144 KIV261977:KIV262144 KSR261977:KSR262144 LCN261977:LCN262144 LMJ261977:LMJ262144 LWF261977:LWF262144 MGB261977:MGB262144 MPX261977:MPX262144 MZT261977:MZT262144 NJP261977:NJP262144 NTL261977:NTL262144 ODH261977:ODH262144 OND261977:OND262144 OWZ261977:OWZ262144 PGV261977:PGV262144 PQR261977:PQR262144 QAN261977:QAN262144 QKJ261977:QKJ262144 QUF261977:QUF262144 REB261977:REB262144 RNX261977:RNX262144 RXT261977:RXT262144 SHP261977:SHP262144 SRL261977:SRL262144 TBH261977:TBH262144 TLD261977:TLD262144 TUZ261977:TUZ262144 UEV261977:UEV262144 UOR261977:UOR262144 UYN261977:UYN262144 VIJ261977:VIJ262144 VSF261977:VSF262144 WCB261977:WCB262144 WLX261977:WLX262144 WVT261977:WVT262144 L327513:L327680 JH327513:JH327680 TD327513:TD327680 ACZ327513:ACZ327680 AMV327513:AMV327680 AWR327513:AWR327680 BGN327513:BGN327680 BQJ327513:BQJ327680 CAF327513:CAF327680 CKB327513:CKB327680 CTX327513:CTX327680 DDT327513:DDT327680 DNP327513:DNP327680 DXL327513:DXL327680 EHH327513:EHH327680 ERD327513:ERD327680 FAZ327513:FAZ327680 FKV327513:FKV327680 FUR327513:FUR327680 GEN327513:GEN327680 GOJ327513:GOJ327680 GYF327513:GYF327680 HIB327513:HIB327680 HRX327513:HRX327680 IBT327513:IBT327680 ILP327513:ILP327680 IVL327513:IVL327680 JFH327513:JFH327680 JPD327513:JPD327680 JYZ327513:JYZ327680 KIV327513:KIV327680 KSR327513:KSR327680 LCN327513:LCN327680 LMJ327513:LMJ327680 LWF327513:LWF327680 MGB327513:MGB327680 MPX327513:MPX327680 MZT327513:MZT327680 NJP327513:NJP327680 NTL327513:NTL327680 ODH327513:ODH327680 OND327513:OND327680 OWZ327513:OWZ327680 PGV327513:PGV327680 PQR327513:PQR327680 QAN327513:QAN327680 QKJ327513:QKJ327680 QUF327513:QUF327680 REB327513:REB327680 RNX327513:RNX327680 RXT327513:RXT327680 SHP327513:SHP327680 SRL327513:SRL327680 TBH327513:TBH327680 TLD327513:TLD327680 TUZ327513:TUZ327680 UEV327513:UEV327680 UOR327513:UOR327680 UYN327513:UYN327680 VIJ327513:VIJ327680 VSF327513:VSF327680 WCB327513:WCB327680 WLX327513:WLX327680 WVT327513:WVT327680 L393049:L393216 JH393049:JH393216 TD393049:TD393216 ACZ393049:ACZ393216 AMV393049:AMV393216 AWR393049:AWR393216 BGN393049:BGN393216 BQJ393049:BQJ393216 CAF393049:CAF393216 CKB393049:CKB393216 CTX393049:CTX393216 DDT393049:DDT393216 DNP393049:DNP393216 DXL393049:DXL393216 EHH393049:EHH393216 ERD393049:ERD393216 FAZ393049:FAZ393216 FKV393049:FKV393216 FUR393049:FUR393216 GEN393049:GEN393216 GOJ393049:GOJ393216 GYF393049:GYF393216 HIB393049:HIB393216 HRX393049:HRX393216 IBT393049:IBT393216 ILP393049:ILP393216 IVL393049:IVL393216 JFH393049:JFH393216 JPD393049:JPD393216 JYZ393049:JYZ393216 KIV393049:KIV393216 KSR393049:KSR393216 LCN393049:LCN393216 LMJ393049:LMJ393216 LWF393049:LWF393216 MGB393049:MGB393216 MPX393049:MPX393216 MZT393049:MZT393216 NJP393049:NJP393216 NTL393049:NTL393216 ODH393049:ODH393216 OND393049:OND393216 OWZ393049:OWZ393216 PGV393049:PGV393216 PQR393049:PQR393216 QAN393049:QAN393216 QKJ393049:QKJ393216 QUF393049:QUF393216 REB393049:REB393216 RNX393049:RNX393216 RXT393049:RXT393216 SHP393049:SHP393216 SRL393049:SRL393216 TBH393049:TBH393216 TLD393049:TLD393216 TUZ393049:TUZ393216 UEV393049:UEV393216 UOR393049:UOR393216 UYN393049:UYN393216 VIJ393049:VIJ393216 VSF393049:VSF393216 WCB393049:WCB393216 WLX393049:WLX393216 WVT393049:WVT393216 L458585:L458752 JH458585:JH458752 TD458585:TD458752 ACZ458585:ACZ458752 AMV458585:AMV458752 AWR458585:AWR458752 BGN458585:BGN458752 BQJ458585:BQJ458752 CAF458585:CAF458752 CKB458585:CKB458752 CTX458585:CTX458752 DDT458585:DDT458752 DNP458585:DNP458752 DXL458585:DXL458752 EHH458585:EHH458752 ERD458585:ERD458752 FAZ458585:FAZ458752 FKV458585:FKV458752 FUR458585:FUR458752 GEN458585:GEN458752 GOJ458585:GOJ458752 GYF458585:GYF458752 HIB458585:HIB458752 HRX458585:HRX458752 IBT458585:IBT458752 ILP458585:ILP458752 IVL458585:IVL458752 JFH458585:JFH458752 JPD458585:JPD458752 JYZ458585:JYZ458752 KIV458585:KIV458752 KSR458585:KSR458752 LCN458585:LCN458752 LMJ458585:LMJ458752 LWF458585:LWF458752 MGB458585:MGB458752 MPX458585:MPX458752 MZT458585:MZT458752 NJP458585:NJP458752 NTL458585:NTL458752 ODH458585:ODH458752 OND458585:OND458752 OWZ458585:OWZ458752 PGV458585:PGV458752 PQR458585:PQR458752 QAN458585:QAN458752 QKJ458585:QKJ458752 QUF458585:QUF458752 REB458585:REB458752 RNX458585:RNX458752 RXT458585:RXT458752 SHP458585:SHP458752 SRL458585:SRL458752 TBH458585:TBH458752 TLD458585:TLD458752 TUZ458585:TUZ458752 UEV458585:UEV458752 UOR458585:UOR458752 UYN458585:UYN458752 VIJ458585:VIJ458752 VSF458585:VSF458752 WCB458585:WCB458752 WLX458585:WLX458752 WVT458585:WVT458752 L524121:L524288 JH524121:JH524288 TD524121:TD524288 ACZ524121:ACZ524288 AMV524121:AMV524288 AWR524121:AWR524288 BGN524121:BGN524288 BQJ524121:BQJ524288 CAF524121:CAF524288 CKB524121:CKB524288 CTX524121:CTX524288 DDT524121:DDT524288 DNP524121:DNP524288 DXL524121:DXL524288 EHH524121:EHH524288 ERD524121:ERD524288 FAZ524121:FAZ524288 FKV524121:FKV524288 FUR524121:FUR524288 GEN524121:GEN524288 GOJ524121:GOJ524288 GYF524121:GYF524288 HIB524121:HIB524288 HRX524121:HRX524288 IBT524121:IBT524288 ILP524121:ILP524288 IVL524121:IVL524288 JFH524121:JFH524288 JPD524121:JPD524288 JYZ524121:JYZ524288 KIV524121:KIV524288 KSR524121:KSR524288 LCN524121:LCN524288 LMJ524121:LMJ524288 LWF524121:LWF524288 MGB524121:MGB524288 MPX524121:MPX524288 MZT524121:MZT524288 NJP524121:NJP524288 NTL524121:NTL524288 ODH524121:ODH524288 OND524121:OND524288 OWZ524121:OWZ524288 PGV524121:PGV524288 PQR524121:PQR524288 QAN524121:QAN524288 QKJ524121:QKJ524288 QUF524121:QUF524288 REB524121:REB524288 RNX524121:RNX524288 RXT524121:RXT524288 SHP524121:SHP524288 SRL524121:SRL524288 TBH524121:TBH524288 TLD524121:TLD524288 TUZ524121:TUZ524288 UEV524121:UEV524288 UOR524121:UOR524288 UYN524121:UYN524288 VIJ524121:VIJ524288 VSF524121:VSF524288 WCB524121:WCB524288 WLX524121:WLX524288 WVT524121:WVT524288 L589657:L589824 JH589657:JH589824 TD589657:TD589824 ACZ589657:ACZ589824 AMV589657:AMV589824 AWR589657:AWR589824 BGN589657:BGN589824 BQJ589657:BQJ589824 CAF589657:CAF589824 CKB589657:CKB589824 CTX589657:CTX589824 DDT589657:DDT589824 DNP589657:DNP589824 DXL589657:DXL589824 EHH589657:EHH589824 ERD589657:ERD589824 FAZ589657:FAZ589824 FKV589657:FKV589824 FUR589657:FUR589824 GEN589657:GEN589824 GOJ589657:GOJ589824 GYF589657:GYF589824 HIB589657:HIB589824 HRX589657:HRX589824 IBT589657:IBT589824 ILP589657:ILP589824 IVL589657:IVL589824 JFH589657:JFH589824 JPD589657:JPD589824 JYZ589657:JYZ589824 KIV589657:KIV589824 KSR589657:KSR589824 LCN589657:LCN589824 LMJ589657:LMJ589824 LWF589657:LWF589824 MGB589657:MGB589824 MPX589657:MPX589824 MZT589657:MZT589824 NJP589657:NJP589824 NTL589657:NTL589824 ODH589657:ODH589824 OND589657:OND589824 OWZ589657:OWZ589824 PGV589657:PGV589824 PQR589657:PQR589824 QAN589657:QAN589824 QKJ589657:QKJ589824 QUF589657:QUF589824 REB589657:REB589824 RNX589657:RNX589824 RXT589657:RXT589824 SHP589657:SHP589824 SRL589657:SRL589824 TBH589657:TBH589824 TLD589657:TLD589824 TUZ589657:TUZ589824 UEV589657:UEV589824 UOR589657:UOR589824 UYN589657:UYN589824 VIJ589657:VIJ589824 VSF589657:VSF589824 WCB589657:WCB589824 WLX589657:WLX589824 WVT589657:WVT589824 L655193:L655360 JH655193:JH655360 TD655193:TD655360 ACZ655193:ACZ655360 AMV655193:AMV655360 AWR655193:AWR655360 BGN655193:BGN655360 BQJ655193:BQJ655360 CAF655193:CAF655360 CKB655193:CKB655360 CTX655193:CTX655360 DDT655193:DDT655360 DNP655193:DNP655360 DXL655193:DXL655360 EHH655193:EHH655360 ERD655193:ERD655360 FAZ655193:FAZ655360 FKV655193:FKV655360 FUR655193:FUR655360 GEN655193:GEN655360 GOJ655193:GOJ655360 GYF655193:GYF655360 HIB655193:HIB655360 HRX655193:HRX655360 IBT655193:IBT655360 ILP655193:ILP655360 IVL655193:IVL655360 JFH655193:JFH655360 JPD655193:JPD655360 JYZ655193:JYZ655360 KIV655193:KIV655360 KSR655193:KSR655360 LCN655193:LCN655360 LMJ655193:LMJ655360 LWF655193:LWF655360 MGB655193:MGB655360 MPX655193:MPX655360 MZT655193:MZT655360 NJP655193:NJP655360 NTL655193:NTL655360 ODH655193:ODH655360 OND655193:OND655360 OWZ655193:OWZ655360 PGV655193:PGV655360 PQR655193:PQR655360 QAN655193:QAN655360 QKJ655193:QKJ655360 QUF655193:QUF655360 REB655193:REB655360 RNX655193:RNX655360 RXT655193:RXT655360 SHP655193:SHP655360 SRL655193:SRL655360 TBH655193:TBH655360 TLD655193:TLD655360 TUZ655193:TUZ655360 UEV655193:UEV655360 UOR655193:UOR655360 UYN655193:UYN655360 VIJ655193:VIJ655360 VSF655193:VSF655360 WCB655193:WCB655360 WLX655193:WLX655360 WVT655193:WVT655360 L720729:L720896 JH720729:JH720896 TD720729:TD720896 ACZ720729:ACZ720896 AMV720729:AMV720896 AWR720729:AWR720896 BGN720729:BGN720896 BQJ720729:BQJ720896 CAF720729:CAF720896 CKB720729:CKB720896 CTX720729:CTX720896 DDT720729:DDT720896 DNP720729:DNP720896 DXL720729:DXL720896 EHH720729:EHH720896 ERD720729:ERD720896 FAZ720729:FAZ720896 FKV720729:FKV720896 FUR720729:FUR720896 GEN720729:GEN720896 GOJ720729:GOJ720896 GYF720729:GYF720896 HIB720729:HIB720896 HRX720729:HRX720896 IBT720729:IBT720896 ILP720729:ILP720896 IVL720729:IVL720896 JFH720729:JFH720896 JPD720729:JPD720896 JYZ720729:JYZ720896 KIV720729:KIV720896 KSR720729:KSR720896 LCN720729:LCN720896 LMJ720729:LMJ720896 LWF720729:LWF720896 MGB720729:MGB720896 MPX720729:MPX720896 MZT720729:MZT720896 NJP720729:NJP720896 NTL720729:NTL720896 ODH720729:ODH720896 OND720729:OND720896 OWZ720729:OWZ720896 PGV720729:PGV720896 PQR720729:PQR720896 QAN720729:QAN720896 QKJ720729:QKJ720896 QUF720729:QUF720896 REB720729:REB720896 RNX720729:RNX720896 RXT720729:RXT720896 SHP720729:SHP720896 SRL720729:SRL720896 TBH720729:TBH720896 TLD720729:TLD720896 TUZ720729:TUZ720896 UEV720729:UEV720896 UOR720729:UOR720896 UYN720729:UYN720896 VIJ720729:VIJ720896 VSF720729:VSF720896 WCB720729:WCB720896 WLX720729:WLX720896 WVT720729:WVT720896 L786265:L786432 JH786265:JH786432 TD786265:TD786432 ACZ786265:ACZ786432 AMV786265:AMV786432 AWR786265:AWR786432 BGN786265:BGN786432 BQJ786265:BQJ786432 CAF786265:CAF786432 CKB786265:CKB786432 CTX786265:CTX786432 DDT786265:DDT786432 DNP786265:DNP786432 DXL786265:DXL786432 EHH786265:EHH786432 ERD786265:ERD786432 FAZ786265:FAZ786432 FKV786265:FKV786432 FUR786265:FUR786432 GEN786265:GEN786432 GOJ786265:GOJ786432 GYF786265:GYF786432 HIB786265:HIB786432 HRX786265:HRX786432 IBT786265:IBT786432 ILP786265:ILP786432 IVL786265:IVL786432 JFH786265:JFH786432 JPD786265:JPD786432 JYZ786265:JYZ786432 KIV786265:KIV786432 KSR786265:KSR786432 LCN786265:LCN786432 LMJ786265:LMJ786432 LWF786265:LWF786432 MGB786265:MGB786432 MPX786265:MPX786432 MZT786265:MZT786432 NJP786265:NJP786432 NTL786265:NTL786432 ODH786265:ODH786432 OND786265:OND786432 OWZ786265:OWZ786432 PGV786265:PGV786432 PQR786265:PQR786432 QAN786265:QAN786432 QKJ786265:QKJ786432 QUF786265:QUF786432 REB786265:REB786432 RNX786265:RNX786432 RXT786265:RXT786432 SHP786265:SHP786432 SRL786265:SRL786432 TBH786265:TBH786432 TLD786265:TLD786432 TUZ786265:TUZ786432 UEV786265:UEV786432 UOR786265:UOR786432 UYN786265:UYN786432 VIJ786265:VIJ786432 VSF786265:VSF786432 WCB786265:WCB786432 WLX786265:WLX786432 WVT786265:WVT786432 L851801:L851968 JH851801:JH851968 TD851801:TD851968 ACZ851801:ACZ851968 AMV851801:AMV851968 AWR851801:AWR851968 BGN851801:BGN851968 BQJ851801:BQJ851968 CAF851801:CAF851968 CKB851801:CKB851968 CTX851801:CTX851968 DDT851801:DDT851968 DNP851801:DNP851968 DXL851801:DXL851968 EHH851801:EHH851968 ERD851801:ERD851968 FAZ851801:FAZ851968 FKV851801:FKV851968 FUR851801:FUR851968 GEN851801:GEN851968 GOJ851801:GOJ851968 GYF851801:GYF851968 HIB851801:HIB851968 HRX851801:HRX851968 IBT851801:IBT851968 ILP851801:ILP851968 IVL851801:IVL851968 JFH851801:JFH851968 JPD851801:JPD851968 JYZ851801:JYZ851968 KIV851801:KIV851968 KSR851801:KSR851968 LCN851801:LCN851968 LMJ851801:LMJ851968 LWF851801:LWF851968 MGB851801:MGB851968 MPX851801:MPX851968 MZT851801:MZT851968 NJP851801:NJP851968 NTL851801:NTL851968 ODH851801:ODH851968 OND851801:OND851968 OWZ851801:OWZ851968 PGV851801:PGV851968 PQR851801:PQR851968 QAN851801:QAN851968 QKJ851801:QKJ851968 QUF851801:QUF851968 REB851801:REB851968 RNX851801:RNX851968 RXT851801:RXT851968 SHP851801:SHP851968 SRL851801:SRL851968 TBH851801:TBH851968 TLD851801:TLD851968 TUZ851801:TUZ851968 UEV851801:UEV851968 UOR851801:UOR851968 UYN851801:UYN851968 VIJ851801:VIJ851968 VSF851801:VSF851968 WCB851801:WCB851968 WLX851801:WLX851968 WVT851801:WVT851968 L917337:L917504 JH917337:JH917504 TD917337:TD917504 ACZ917337:ACZ917504 AMV917337:AMV917504 AWR917337:AWR917504 BGN917337:BGN917504 BQJ917337:BQJ917504 CAF917337:CAF917504 CKB917337:CKB917504 CTX917337:CTX917504 DDT917337:DDT917504 DNP917337:DNP917504 DXL917337:DXL917504 EHH917337:EHH917504 ERD917337:ERD917504 FAZ917337:FAZ917504 FKV917337:FKV917504 FUR917337:FUR917504 GEN917337:GEN917504 GOJ917337:GOJ917504 GYF917337:GYF917504 HIB917337:HIB917504 HRX917337:HRX917504 IBT917337:IBT917504 ILP917337:ILP917504 IVL917337:IVL917504 JFH917337:JFH917504 JPD917337:JPD917504 JYZ917337:JYZ917504 KIV917337:KIV917504 KSR917337:KSR917504 LCN917337:LCN917504 LMJ917337:LMJ917504 LWF917337:LWF917504 MGB917337:MGB917504 MPX917337:MPX917504 MZT917337:MZT917504 NJP917337:NJP917504 NTL917337:NTL917504 ODH917337:ODH917504 OND917337:OND917504 OWZ917337:OWZ917504 PGV917337:PGV917504 PQR917337:PQR917504 QAN917337:QAN917504 QKJ917337:QKJ917504 QUF917337:QUF917504 REB917337:REB917504 RNX917337:RNX917504 RXT917337:RXT917504 SHP917337:SHP917504 SRL917337:SRL917504 TBH917337:TBH917504 TLD917337:TLD917504 TUZ917337:TUZ917504 UEV917337:UEV917504 UOR917337:UOR917504 UYN917337:UYN917504 VIJ917337:VIJ917504 VSF917337:VSF917504 WCB917337:WCB917504 WLX917337:WLX917504 WVT917337:WVT917504 L982873:L983040 JH982873:JH983040 TD982873:TD983040 ACZ982873:ACZ983040 AMV982873:AMV983040 AWR982873:AWR983040 BGN982873:BGN983040 BQJ982873:BQJ983040 CAF982873:CAF983040 CKB982873:CKB983040 CTX982873:CTX983040 DDT982873:DDT983040 DNP982873:DNP983040 DXL982873:DXL983040 EHH982873:EHH983040 ERD982873:ERD983040 FAZ982873:FAZ983040 FKV982873:FKV983040 FUR982873:FUR983040 GEN982873:GEN983040 GOJ982873:GOJ983040 GYF982873:GYF983040 HIB982873:HIB983040 HRX982873:HRX983040 IBT982873:IBT983040 ILP982873:ILP983040 IVL982873:IVL983040 JFH982873:JFH983040 JPD982873:JPD983040 JYZ982873:JYZ983040 KIV982873:KIV983040 KSR982873:KSR983040 LCN982873:LCN983040 LMJ982873:LMJ983040 LWF982873:LWF983040 MGB982873:MGB983040 MPX982873:MPX983040 MZT982873:MZT983040 NJP982873:NJP983040 NTL982873:NTL983040 ODH982873:ODH983040 OND982873:OND983040 OWZ982873:OWZ983040 PGV982873:PGV983040 PQR982873:PQR983040 QAN982873:QAN983040 QKJ982873:QKJ983040 QUF982873:QUF983040 REB982873:REB983040 RNX982873:RNX983040 RXT982873:RXT983040 SHP982873:SHP983040 SRL982873:SRL983040 TBH982873:TBH983040 TLD982873:TLD983040 TUZ982873:TUZ983040 UEV982873:UEV983040 UOR982873:UOR983040 UYN982873:UYN983040 VIJ982873:VIJ983040 VSF982873:VSF983040 WCB982873:WCB983040 WLX982873:WLX983040 JF15 SZ15 ACT15 AMN15 AWH15 BGB15 BPV15 BZP15 CJJ15 CTD15 DCX15 DMR15 DWL15 EGF15 EPZ15 EZT15 FJN15 FTH15 GDB15 GMV15 GWP15 HGJ15 HQD15 HZX15 IJR15 ITL15 JDF15 JMZ15 JWT15 KGN15 KQH15 LAB15 LJV15 LTP15 MDJ15 MND15 MWX15 NGR15 NQL15 OAF15 OJZ15 OTT15 PDN15 PNH15 PXB15 QGV15 QQP15 RAJ15 RKD15 RTX15 SDR15 SNL15 SXF15 TGZ15 TQT15 UAN15 UKH15 UUB15 VDV15 VNP15 VXJ15 WHD15 WQX15 L6:L47">
       <formula1>$B$1:$D$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -24615,37 +24995,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="91"/>
       <c r="E1" s="6"/>
       <c r="F1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="H1" s="92" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -24653,7 +25033,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -24665,16 +25045,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -24682,13 +25062,13 @@
     <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -24696,13 +25076,13 @@
     <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -24710,13 +25090,13 @@
     <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -24724,13 +25104,13 @@
     <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -24739,12 +25119,12 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -24753,12 +25133,12 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -24768,26 +25148,26 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -24795,13 +25175,13 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -24809,13 +25189,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -24823,13 +25203,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -24838,15 +25218,15 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -24855,28 +25235,28 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -24886,29 +25266,29 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -24918,10 +25298,10 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -24931,22 +25311,22 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -24958,16 +25338,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -24975,13 +25355,13 @@
     <row r="25" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -24989,13 +25369,13 @@
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -25003,13 +25383,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -25017,13 +25397,13 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -25032,12 +25412,12 @@
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -25046,12 +25426,12 @@
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -25061,26 +25441,26 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -25088,13 +25468,13 @@
     <row r="33" spans="1:8">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -25102,13 +25482,13 @@
     <row r="34" spans="1:8">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -25116,13 +25496,13 @@
     <row r="35" spans="1:8">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -25131,15 +25511,15 @@
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="11"/>
     </row>
@@ -25150,7 +25530,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -25159,12 +25539,12 @@
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -25174,11 +25554,11 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -25187,12 +25567,12 @@
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -25202,14 +25582,14 @@
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" s="15"/>
     </row>
@@ -25219,25 +25599,25 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="11"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -25246,12 +25626,12 @@
       <c r="A44" s="11"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -25261,25 +25641,25 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
       <c r="F46" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="21"/>
@@ -25288,12 +25668,12 @@
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="23"/>
       <c r="F47" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="25"/>
@@ -25303,11 +25683,11 @@
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
@@ -25316,12 +25696,12 @@
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="25"/>
@@ -25331,25 +25711,25 @@
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="27"/>
       <c r="F51" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="29"/>
@@ -25358,12 +25738,12 @@
       <c r="A52" s="30"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="27"/>
       <c r="F52" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="29"/>
@@ -25373,11 +25753,11 @@
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="29"/>
@@ -25386,12 +25766,12 @@
       <c r="A54" s="30"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="29"/>
@@ -25401,11 +25781,11 @@
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="34"/>
